--- a/templates/AutomationOrg/RSTK-9521-Consigned WO.xlsx
+++ b/templates/AutomationOrg/RSTK-9521-Consigned WO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\EventDemo\Parallel-Execution\templates\AutomationOrg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\provar\QA-automation\rsqasampleproj\templates\AutomationOrg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4764EDB2-F631-42AA-8914-AF21FECA7312}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8C88D0-7CCD-4394-9781-E2269F172C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="94">
   <si>
     <t>Site</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Project Charge Code</t>
   </si>
   <si>
-    <t>Pro-Lot Track (Lot Track)</t>
-  </si>
-  <si>
     <t>1020 (100 charge code active)</t>
   </si>
   <si>
@@ -148,9 +145,6 @@
     <t>Location Comments</t>
   </si>
   <si>
-    <t>WORCPT</t>
-  </si>
-  <si>
     <t>Test comm</t>
   </si>
   <si>
@@ -202,9 +196,6 @@
     <t>Fixed Component Qty Flag</t>
   </si>
   <si>
-    <t>Pro-child4 (NO Track)</t>
-  </si>
-  <si>
     <t>Qty Per</t>
   </si>
   <si>
@@ -214,15 +205,6 @@
     <t>Fixed Qty</t>
   </si>
   <si>
-    <t>Pro-child1 (Lot Track)</t>
-  </si>
-  <si>
-    <t>Pro-child5 (NO Track)</t>
-  </si>
-  <si>
-    <t>Pro-serial Track (Serial Track)</t>
-  </si>
-  <si>
     <t>Operation Type</t>
   </si>
   <si>
@@ -298,12 +280,6 @@
     <t>Op 20</t>
   </si>
   <si>
-    <t>Pro-No Track (Make no Track)</t>
-  </si>
-  <si>
-    <t>Pro-Lot and serial Track (Lot and serial track)</t>
-  </si>
-  <si>
     <t>Op 30</t>
   </si>
   <si>
@@ -313,12 +289,6 @@
     <t>8/16/2026</t>
   </si>
   <si>
-    <t>C101 (Consigned)</t>
-  </si>
-  <si>
-    <t>CON (Consigned)</t>
-  </si>
-  <si>
     <t>con2 (Consigned2)</t>
   </si>
   <si>
@@ -329,6 +299,21 @@
   </si>
   <si>
     <t>Allow Accept Flag?</t>
+  </si>
+  <si>
+    <t>Pro-Consigned (Parent Item LOT Item)</t>
+  </si>
+  <si>
+    <t>Pro-Consigned2 (Parent Item LOT Item)</t>
+  </si>
+  <si>
+    <t>Pro-child15 (Lot track)</t>
+  </si>
+  <si>
+    <t>Pro-child16 (NO Track)</t>
+  </si>
+  <si>
+    <t>Pro-child17 (NO Track)</t>
   </si>
 </sst>
 </file>
@@ -725,7 +710,7 @@
         <v>6</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -733,17 +718,17 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" s="3"/>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -761,7 +746,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -781,36 +766,36 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>91</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
@@ -825,15 +810,15 @@
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -848,15 +833,15 @@
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -871,11 +856,12 @@
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -883,7 +869,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F645892-6DEC-48BA-AEFF-9DA397370813}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -918,105 +906,105 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="J1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="K1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>67</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>68</v>
       </c>
-      <c r="H1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J1" t="s">
-        <v>70</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>71</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>72</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>73</v>
       </c>
-      <c r="N1" t="s">
-        <v>74</v>
-      </c>
-      <c r="O1" t="s">
-        <v>77</v>
-      </c>
-      <c r="P1" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>79</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="S1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N2">
         <v>1</v>
       </c>
       <c r="O2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1024,49 +1012,49 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C3">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N3">
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P3" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -1074,49 +1062,49 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B4" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -1131,10 +1119,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BAA8AA5-AAA5-4969-B3C7-F881B91DE17C}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1160,57 +1148,57 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>17</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>20</v>
       </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
       <c r="O1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="5">
         <v>44537</v>
@@ -1219,59 +1207,59 @@
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" t="s">
         <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>8</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="N3" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" t="s">
         <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>8</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -1280,24 +1268,24 @@
         <v>3</v>
       </c>
       <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
         <v>25</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>8</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -1306,282 +1294,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" t="s">
         <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" t="s">
-        <v>25</v>
-      </c>
-      <c r="O6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8">
-        <v>3</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5">
-        <v>44537</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="G8" t="s">
-        <v>28</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="N10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>2</v>
-      </c>
-      <c r="N11" t="s">
-        <v>25</v>
-      </c>
-      <c r="O11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5">
-        <v>44537</v>
-      </c>
-      <c r="E12">
-        <v>8</v>
-      </c>
-      <c r="G12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" t="s">
-        <v>25</v>
-      </c>
-      <c r="O12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" t="s">
-        <v>25</v>
-      </c>
-      <c r="O13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14">
-        <v>8</v>
-      </c>
-      <c r="G14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>3</v>
-      </c>
-      <c r="N14" t="s">
-        <v>25</v>
-      </c>
-      <c r="O14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>8</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>2</v>
-      </c>
-      <c r="N15" t="s">
-        <v>25</v>
-      </c>
-      <c r="O15" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1593,10 +1309,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F4B46C-917D-4769-9EED-CC4369AB85E4}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1618,138 +1334,57 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
         <v>33</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>34</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>92</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="s">
         <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>92</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1760,10 +1395,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4834583-3C97-4830-AB3E-726B04898CE6}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="A2:XFD2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1779,57 +1414,24 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1839,10 +1441,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F64F68B-8B51-425D-AD6F-D9D782FBD866}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,18 +1458,18 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" t="s">
         <v>13</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>20</v>
@@ -1875,105 +1477,25 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="D5">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D9">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>89</v>
-      </c>
-      <c r="D15">
         <v>10</v>
       </c>
     </row>
@@ -1984,10 +1506,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E34EC26A-E704-4A02-9DEB-2216FF4892C8}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2002,53 +1524,20 @@
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
       <c r="C2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
         <v>1</v>
       </c>
     </row>
